--- a/elenconorme.xlsx
+++ b/elenconorme.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fin\Desktop\Backup puliattipython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup puliattipython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0381C6D-CE9A-4519-AD79-E0180C64180E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0F8C8E-5034-40F1-A420-BB361D2FC67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -49,12 +49,6 @@
 "P5" : "Il fatto è commesso con violazione dei doveri inerenti l'esercizio di funzioni pubbliche",
 "E1" : "L'agente è punito con la reclusione non inferiore a dodici anni",
 "E2" : "La pena è aggravata."}</t>
-  </si>
-  <si>
-    <t>Il cittadino che porta le armi contro lo Stato, o presta servizio nelle forze armate di uno Stato in guerra  contro lo Stato italiano, è punito con l'ergastolo.
-Non è punibile chi, trovandosi, durante le ostilità, nel territorio dello Stato nemico, ha commesso il fatto per esservi stato costretto da un obbligo impostogli dalle leggi dello Stato medesimo.
-Agli effetti delle disposizioni di questo titolo, è considerato cittadino anche chi ha perduto per qualunque causa la cittadinanza italiana.
-Agli effetti della legge penale, sono considerati Stati in guerra contro lo Stato italiano anche gli aggregati politici che, sebbene dallo Stato italiano non riconosciuti come Stati, abbiano tuttavia il trattamento di belligeranti.</t>
   </si>
   <si>
     <t>((P1 ∨ P6) ∧ (P2 ∨ (P3 ∨ P7) ))  ∧ not(P4 ∧ P5) → E1
@@ -121,14 +115,6 @@
 (P1 ∧ (P2 ∨ P3) ∧ P4) → E2</t>
   </si>
   <si>
-    <t>{"P1": "L'agente tiene intelligenze con lo straniero",
-"P2": "L'agente si impegna per atti diretti a impegnare lo Stato italiano alla dichiarazione o al mantenimento della neutralità",
-"P3": "L'agente si impegna per atti diretti a impegnare lo Stato italiano alla dichiarazione di guerra",
-"P4": "Le intelligenze dell'agente hanno per oggetto una propaganda col mezzo della stampa",
-"E1": "L'agente è punito con la reclusione da cinque a quindici anni",
-"E2": "La pena dell'agente è aumentata"}</t>
-  </si>
-  <si>
     <t>Il cittadino, che, anche indirettamente, riceve o si fa promettere dallo straniero, per sé o per altri, denaro o qualsiasi utilità, o soltanto ne accetta la promessa, al fine di compiere atti contrari agli interessi nazionali, è punito, se il fatto non costituisce un più grave reato, con la reclusione da tre a dieci anni e con la multa da 516 euro a 2.065 euro.
 Alla stessa pena soggiace lo straniero che dà o promette il denaro o l'utilità.
  La pena è aumentata:
@@ -239,12 +225,26 @@
   <si>
     <t>art. 250 c.p. ("Commercio col nemico")</t>
   </si>
+  <si>
+    <t>Il cittadino che porta le armi contro lo Stato, o presta servizio nelle forze armate di uno Stato in guerra  contro lo Stato italiano, è punito con l'ergastolo.
+Non è punibile chi, trovandosi, durante le ostilità, nel territorio dello Stato nemico, ha commesso il fatto per esservi stato costretto da un obbligo impostogli dalle leggi dello Stato medesimo.
+Agli effetti delle disposizioni di questo titolo, è considerato cittadino anche chi ha perduto per qualunque causa la cittadinanza italiana.
+Agli effetti della legge penale, sono considerati Stati in guerra contro lo Stato italiano anche gli aggregati politici che, sebbene dallo Stato italiano non riconosciuti come Stati, abbiano tuttavia il trattamento di belligeranti.</t>
+  </si>
+  <si>
+    <t>{"P1": "L'agente tiene intelligenze con lo straniero",
+"P2": "L'agente si impegna per atti diretti a impegnare lo Stato italiano alla dichiarazione o al mantenimento della neutralità",
+"P3": "L'agente si impegna per atti diretti a impegnare lo Stato italiano alla dichiarazione di guerra",
+"P4": "Le intelligenze dell'agente hanno per oggetto una propaganda col mezzo della stampa",
+"E1": "L'agente è punito con la reclusione da cinque a quindici anni (c.1)",
+"E2": "La pena dell'agente è aumentata (c. 2)"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FF4A4A4A"/>
       <name val="Calibri"/>
@@ -280,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -299,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +621,7 @@
     </row>
     <row r="2" spans="1:4" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -624,132 +635,132 @@
     </row>
     <row r="3" spans="1:4" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>